--- a/build/templates/example_sheet.xlsx
+++ b/build/templates/example_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\mathcad_auto\build\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD34625-AC73-4767-B1F1-465EAEF8DD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C86B11-5AAA-4971-9318-12B80EEBFFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="0" windowWidth="19965" windowHeight="15600" xr2:uid="{9B97A033-A49C-4F03-8482-3DF783EAAC46}"/>
   </bookViews>
